--- a/Assets/Resources/MasterData/EnemyActionData.xlsx
+++ b/Assets/Resources/MasterData/EnemyActionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F823BB77-AB10-4B05-A027-CE39B7E524B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCCBB1-B30C-4460-B018-CE0A2B723573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-15075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="-14730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyActionData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverheadrAttack</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -139,10 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -423,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -520,6 +525,14 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/EnemyActionData.xlsx
+++ b/Assets/Resources/MasterData/EnemyActionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCCBB1-B30C-4460-B018-CE0A2B723573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1631ACC3-CBC4-4DD4-A008-F27AB014090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="-14730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OverheadrAttack</t>
+    <t>OverheadAttack</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/EnemyActionData.xlsx
+++ b/Assets/Resources/MasterData/EnemyActionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1631ACC3-CBC4-4DD4-A008-F27AB014090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5591435A-9963-49AF-ABD6-3F69662EF6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="-14730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>OverheadAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Freeze</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -428,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -473,65 +477,73 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
